--- a/theme_connections.xlsx
+++ b/theme_connections.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beth\Desktop\HON 1000 Redux\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26122"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="2760"/>
+    <workbookView xWindow="6340" yWindow="1520" windowWidth="39000" windowHeight="19480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>Classic Text</t>
   </si>
@@ -474,16 +472,78 @@
   </si>
   <si>
     <t>Builds on 1935! Technological advancements in the 21st century city</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Weeks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -506,13 +566,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -571,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,7 +671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -783,7 +848,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -791,519 +856,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="52.83203125" customWidth="1"/>
     <col min="3" max="3" width="66" customWidth="1"/>
-    <col min="4" max="4" width="99.7109375" customWidth="1"/>
+    <col min="4" max="4" width="99.6640625" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
-    <col min="6" max="6" width="114.140625" customWidth="1"/>
-    <col min="7" max="7" width="78.5703125" customWidth="1"/>
-    <col min="8" max="8" width="126.140625" customWidth="1"/>
-    <col min="9" max="9" width="145.140625" customWidth="1"/>
-    <col min="10" max="10" width="128.85546875" customWidth="1"/>
-    <col min="11" max="11" width="147.28515625" customWidth="1"/>
-    <col min="12" max="12" width="134.85546875" customWidth="1"/>
+    <col min="6" max="6" width="114.1640625" customWidth="1"/>
+    <col min="7" max="7" width="78.5" customWidth="1"/>
+    <col min="8" max="8" width="126.1640625" customWidth="1"/>
+    <col min="9" max="9" width="145.1640625" customWidth="1"/>
+    <col min="10" max="10" width="128.83203125" customWidth="1"/>
+    <col min="11" max="11" width="147.33203125" customWidth="1"/>
+    <col min="12" max="12" width="134.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>116</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>88</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>100</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>117</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>127</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>55</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>78</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>89</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>101</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>118</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K4" t="s">
         <v>128</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>49</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>79</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>90</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>102</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>119</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
         <v>129</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>50</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>57</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>67</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>80</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>103</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J6" t="s">
         <v>120</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K6" t="s">
         <v>27</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>91</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>104</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J7" t="s">
         <v>121</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K7" t="s">
         <v>130</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>58</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>68</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>81</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>92</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>105</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" t="s">
         <v>122</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K8" t="s">
         <v>131</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>69</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>82</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>93</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>106</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" t="s">
         <v>123</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K9" t="s">
         <v>132</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>53</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>70</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>83</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>94</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>107</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J10" t="s">
         <v>19</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>133</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>61</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>71</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>84</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>95</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>108</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" t="s">
         <v>22</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>72</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>85</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>96</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>109</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J12" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K12" t="s">
         <v>134</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>63</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>73</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>110</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J13" t="s">
         <v>124</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K13" t="s">
         <v>135</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>64</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>74</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>86</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>97</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>111</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J14" t="s">
         <v>125</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K14" t="s">
         <v>29</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>75</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>112</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K15" t="s">
         <v>24</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>77</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>98</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>113</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J17" t="s">
         <v>126</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K17" t="s">
         <v>25</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>87</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>99</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I19" t="s">
         <v>114</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I20" t="s">
         <v>115</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K20" t="s">
         <v>26</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K21" t="s">
         <v>136</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L21" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>